--- a/Comandos TypeScript.xlsx
+++ b/Comandos TypeScript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3C040592-E733-42DB-83BF-3942513EA7DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{79E453B9-4A50-41A2-BC4C-1380421A9924}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Comando</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>Adicionar al tsconfig.json este parametro para que compile por si mismo</t>
+  </si>
+  <si>
+    <t>Parametros de tsconfig.json</t>
+  </si>
+  <si>
+    <t>sourceMap</t>
+  </si>
+  <si>
+    <t>Permite crear un archivo .map para hacer debug en el explorador</t>
   </si>
 </sst>
 </file>
@@ -385,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,6 +470,19 @@
         <v>15</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Comandos TypeScript.xlsx
+++ b/Comandos TypeScript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{79E453B9-4A50-41A2-BC4C-1380421A9924}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{047716C7-6F2F-4E45-B832-89D5AF3CB0BA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Comando</t>
   </si>
@@ -77,16 +77,69 @@
   </si>
   <si>
     <t>Permite crear un archivo .map para hacer debug en el explorador</t>
+  </si>
+  <si>
+    <t>removeComments</t>
+  </si>
+  <si>
+    <t>Tipo boolean</t>
+  </si>
+  <si>
+    <t>Permite indicar si el js se genera con comentarios</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>Arreglo Strings</t>
+  </si>
+  <si>
+    <t>exclude</t>
+  </si>
+  <si>
+    <t>Permite indicar que directorios incluir en la compilación, no se define dentro del compileroptions</t>
+  </si>
+  <si>
+    <t>Permite indicar que directorios excluir en la compilación, no se define dentro del compileroptions</t>
+  </si>
+  <si>
+    <t>outFile</t>
+  </si>
+  <si>
+    <t>tsc outFile archivoSalida archivo1 archivo2 archivo3</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>http://www.typescriptlang.org/docs/handbook/tsconfig-json.html</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>El parametro file permite indicar los archivos a compilar y esto tambien ayuda a determinar el orden de generación de los archivos en el outfile.</t>
+  </si>
+  <si>
+    <t>en el tsconfig.json recibe la dirección y nombre archivo salida de un compilado de todos los ts files, además se requiere compilar a mano con tsc.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,13 +162,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -394,19 +450,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,7 +470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -422,7 +478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -430,7 +486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -438,7 +494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -446,7 +502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -454,7 +510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -462,7 +518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -470,20 +526,89 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D17" r:id="rId1" xr:uid="{D108CA36-BDE2-4C4A-9ED7-0FEDAA63FEC9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Comandos TypeScript.xlsx
+++ b/Comandos TypeScript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{047716C7-6F2F-4E45-B832-89D5AF3CB0BA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{409AC6DF-DA20-4D38-AFC3-C1A700D19A63}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Comando</t>
   </si>
@@ -122,6 +122,42 @@
   </si>
   <si>
     <t>en el tsconfig.json recibe la dirección y nombre archivo salida de un compilado de todos los ts files, además se requiere compilar a mano con tsc.</t>
+  </si>
+  <si>
+    <t>Comandos Node</t>
+  </si>
+  <si>
+    <t>npm init</t>
+  </si>
+  <si>
+    <t>Iniciar un proyecto de node.js</t>
+  </si>
+  <si>
+    <t>npm install lite-server --save-dev</t>
+  </si>
+  <si>
+    <t>Instalación de un servidor ligero</t>
+  </si>
+  <si>
+    <t>https://github.com/johnpapa/lite-server</t>
+  </si>
+  <si>
+    <t>npm run dev</t>
+  </si>
+  <si>
+    <t>Ejecuta el servidor configurado</t>
+  </si>
+  <si>
+    <t>npm i npm</t>
+  </si>
+  <si>
+    <t>Instala las dependencias de un proyecto</t>
+  </si>
+  <si>
+    <t>npm install -g lite-server</t>
+  </si>
+  <si>
+    <t>Para instalar globalmente</t>
   </si>
 </sst>
 </file>
@@ -450,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,10 +641,64 @@
         <v>30</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D17" r:id="rId1" xr:uid="{D108CA36-BDE2-4C4A-9ED7-0FEDAA63FEC9}"/>
+    <hyperlink ref="D22" r:id="rId2" xr:uid="{69C1A9DE-570E-4309-A25D-EBD47E63497A}"/>
+    <hyperlink ref="D25" r:id="rId3" xr:uid="{9158C439-147B-4F97-96C5-EEB95783E970}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Comandos TypeScript.xlsx
+++ b/Comandos TypeScript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{409AC6DF-DA20-4D38-AFC3-C1A700D19A63}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BFFF151A-6E57-41E8-95CC-D27ED9F97E37}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Comando</t>
   </si>
@@ -158,6 +158,28 @@
   </si>
   <si>
     <t>Para instalar globalmente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">npm install </t>
+  </si>
+  <si>
+    <t>Instala dependencias de un proyecto</t>
+  </si>
+  <si>
+    <t>npm install --save-dev @types/jquery</t>
+  </si>
+  <si>
+    <t>Instala en la versión de desarrollo un archivo de definición.
+Un archivo de definición contiene todos los elementos que una librería tiene para que typescript no genere error.</t>
+  </si>
+  <si>
+    <t>npm install --save-dev  @types/sweetalert</t>
+  </si>
+  <si>
+    <t>definitelytyped sweetalert</t>
+  </si>
+  <si>
+    <t>termino para buscar la librería de los types a descargar</t>
   </si>
 </sst>
 </file>
@@ -202,9 +224,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -486,15 +511,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="90.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -692,13 +717,43 @@
         <v>39</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D17" r:id="rId1" xr:uid="{D108CA36-BDE2-4C4A-9ED7-0FEDAA63FEC9}"/>
     <hyperlink ref="D22" r:id="rId2" xr:uid="{69C1A9DE-570E-4309-A25D-EBD47E63497A}"/>
     <hyperlink ref="D25" r:id="rId3" xr:uid="{9158C439-147B-4F97-96C5-EEB95783E970}"/>
+    <hyperlink ref="A28" r:id="rId4" display="{{{@types/sweetalert" xr:uid="{B71321A3-B6AE-4A59-9FA1-FD018F09C204}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>